--- a/cash_flow_calculator.xlsx
+++ b/cash_flow_calculator.xlsx
@@ -5,19 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwan/Dev/Consulting project in data science/real_estate/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hwan/Dev/Consulting project in data science/real_estate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C84E8771-EB47-E849-987A-23DA7CA23F3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BE223BD-2BBC-B847-A15A-263CD9168E34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-36800" yWindow="2240" windowWidth="33600" windowHeight="19000" activeTab="1" xr2:uid="{8B083BEA-59AE-8948-9CAF-D6D5EBD69220}"/>
+    <workbookView xWindow="-36240" yWindow="1280" windowWidth="33600" windowHeight="19000" xr2:uid="{8B083BEA-59AE-8948-9CAF-D6D5EBD69220}"/>
   </bookViews>
   <sheets>
-    <sheet name="Buying_first_home" sheetId="1" r:id="rId1"/>
-    <sheet name="Buying_first_home_2" sheetId="5" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Total" sheetId="2" r:id="rId4"/>
-    <sheet name="sources" sheetId="3" r:id="rId5"/>
+    <sheet name="Property1" sheetId="5" r:id="rId1"/>
+    <sheet name="Property2" sheetId="1" r:id="rId2"/>
+    <sheet name="sources" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="93">
   <si>
     <t>address</t>
   </si>
@@ -57,9 +55,6 @@
     <t>Taxes</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
     <t>County</t>
   </si>
   <si>
@@ -127,9 +122,6 @@
   </si>
   <si>
     <t>vacancy rate</t>
-  </si>
-  <si>
-    <t>C</t>
   </si>
   <si>
     <t>Capital Expenditure</t>
@@ -789,18 +781,956 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFB8FAF-8138-CA4D-80DA-9B7B867EB697}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8993CD13-5542-1545-8627-FFC7EEDD19C0}">
   <dimension ref="A1:L55"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="64.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="143.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" s="8"/>
+      <c r="B1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D1" s="9">
+        <v>0.4</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="L1" s="22"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="20">
+        <f>B7*(1-D1)</f>
+        <v>225000</v>
+      </c>
+      <c r="E2" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="15">
+        <v>11000</v>
+      </c>
+      <c r="G2" s="13">
+        <v>0</v>
+      </c>
+      <c r="H2" s="13">
+        <v>25</v>
+      </c>
+      <c r="I2" s="15">
+        <f>F2/H2</f>
+        <v>440</v>
+      </c>
+      <c r="J2" s="15">
+        <f>I2/12</f>
+        <v>36.666666666666664</v>
+      </c>
+      <c r="K2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L2" s="1"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" s="21">
+        <v>5.6500000000000002E-2</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="F3" s="15">
+        <v>350</v>
+      </c>
+      <c r="G3" s="13">
+        <v>0</v>
+      </c>
+      <c r="H3" s="13">
+        <v>10</v>
+      </c>
+      <c r="I3" s="15">
+        <f t="shared" ref="I3:I22" si="0">F3/H3</f>
+        <v>35</v>
+      </c>
+      <c r="J3" s="15">
+        <f t="shared" ref="J3:J22" si="1">I3/12</f>
+        <v>2.9166666666666665</v>
+      </c>
+      <c r="K3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="6">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>68</v>
+      </c>
+      <c r="F4" s="15">
+        <v>1000</v>
+      </c>
+      <c r="G4" s="13">
+        <v>0</v>
+      </c>
+      <c r="H4" s="13">
+        <v>10</v>
+      </c>
+      <c r="I4" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J4" s="15">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="8">
+        <v>1967</v>
+      </c>
+      <c r="C5" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="D5" s="6">
+        <v>12</v>
+      </c>
+      <c r="E5" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" s="15">
+        <v>1500</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>50</v>
+      </c>
+      <c r="I5" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J5" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="D6" s="6">
+        <f>D4*D5</f>
+        <v>360</v>
+      </c>
+      <c r="E6" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="15">
+        <v>7500</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>20</v>
+      </c>
+      <c r="I6" s="15">
+        <f t="shared" si="0"/>
+        <v>375</v>
+      </c>
+      <c r="J6" s="15">
+        <f t="shared" si="1"/>
+        <v>31.25</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" s="22"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="14">
+        <v>375000</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D7" s="20">
+        <f>-PMT(D3/D5,D6,D2,0)</f>
+        <v>1298.780526624435</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F7" s="15">
+        <v>6000</v>
+      </c>
+      <c r="G7" s="13">
+        <v>1</v>
+      </c>
+      <c r="H7" s="13">
+        <v>6</v>
+      </c>
+      <c r="I7" s="15">
+        <f t="shared" si="0"/>
+        <v>1000</v>
+      </c>
+      <c r="J7" s="15">
+        <f t="shared" si="1"/>
+        <v>83.333333333333329</v>
+      </c>
+      <c r="K7" t="s">
+        <v>79</v>
+      </c>
+      <c r="L7" s="22"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="14">
+        <v>5000</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="10">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="E8" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="15">
+        <v>3500</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>30</v>
+      </c>
+      <c r="I8" s="15">
+        <f t="shared" si="0"/>
+        <v>116.66666666666667</v>
+      </c>
+      <c r="J8" s="15">
+        <f t="shared" si="1"/>
+        <v>9.7222222222222232</v>
+      </c>
+      <c r="K8" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="22"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="14">
+        <v>0</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" s="11">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F9" s="15">
+        <v>8000</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>50</v>
+      </c>
+      <c r="I9" s="15">
+        <f t="shared" si="0"/>
+        <v>160</v>
+      </c>
+      <c r="J9" s="15">
+        <f t="shared" si="1"/>
+        <v>13.333333333333334</v>
+      </c>
+      <c r="K9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B10" s="14">
+        <v>0</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="11">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="F10" s="15">
+        <v>2600</v>
+      </c>
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="13">
+        <v>5</v>
+      </c>
+      <c r="I10" s="15">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="J10" s="15">
+        <f t="shared" si="1"/>
+        <v>43.333333333333336</v>
+      </c>
+      <c r="K10" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B11" s="14">
+        <f>SUM(B7:B10)</f>
+        <v>380000</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1600</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="15">
+        <v>8000</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>20</v>
+      </c>
+      <c r="I11" s="15">
+        <f t="shared" si="0"/>
+        <v>400</v>
+      </c>
+      <c r="J11" s="15">
+        <f t="shared" si="1"/>
+        <v>33.333333333333336</v>
+      </c>
+      <c r="K11" s="24" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B12" s="14">
+        <f>ROUND((B7*D8)/12, 0)</f>
+        <v>391</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="12">
+        <f>(D11-B27)*12/(B11-D2)</f>
+        <v>-7.5642609127298782E-2</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5000</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>50</v>
+      </c>
+      <c r="I12" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J12" s="15">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K12" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="14">
+        <v>21</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="15">
+        <v>800</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>10</v>
+      </c>
+      <c r="I13" s="15">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="J13" s="15">
+        <f t="shared" si="1"/>
+        <v>6.666666666666667</v>
+      </c>
+      <c r="K13" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="14">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>20</v>
+      </c>
+      <c r="I14" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J14" s="15">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" s="14">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>50</v>
+      </c>
+      <c r="I15" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J15" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" s="14">
+        <v>0</v>
+      </c>
+      <c r="D16" s="19"/>
+      <c r="E16" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="F16" s="15">
+        <v>3000</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>100</v>
+      </c>
+      <c r="I16" s="15">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="J16" s="15">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="K16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B17" s="14">
+        <v>0</v>
+      </c>
+      <c r="D17" s="19"/>
+      <c r="E17" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F17" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>20</v>
+      </c>
+      <c r="I17" s="15">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="J17" s="15">
+        <f t="shared" si="1"/>
+        <v>8.3333333333333339</v>
+      </c>
+      <c r="K17" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="14">
+        <v>0</v>
+      </c>
+      <c r="D18" s="19"/>
+      <c r="E18" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>10</v>
+      </c>
+      <c r="I18" s="15">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="J18" s="15">
+        <f t="shared" si="1"/>
+        <v>16.666666666666668</v>
+      </c>
+      <c r="K18" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" s="14">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="15">
+        <v>0</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>100</v>
+      </c>
+      <c r="I19" s="15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J19" s="15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" s="14">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="F20" s="15">
+        <v>12000</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>40</v>
+      </c>
+      <c r="I20" s="15">
+        <f t="shared" si="0"/>
+        <v>300</v>
+      </c>
+      <c r="J20" s="15">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+      <c r="K20" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B21" s="14">
+        <v>500</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="15">
+        <v>2000</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>70</v>
+      </c>
+      <c r="I21" s="15">
+        <f t="shared" si="0"/>
+        <v>28.571428571428573</v>
+      </c>
+      <c r="J21" s="15">
+        <f t="shared" si="1"/>
+        <v>2.3809523809523809</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" s="14">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="15">
+        <v>2800</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>10</v>
+      </c>
+      <c r="I22" s="15">
+        <f t="shared" si="0"/>
+        <v>280</v>
+      </c>
+      <c r="J22" s="15">
+        <f t="shared" si="1"/>
+        <v>23.333333333333332</v>
+      </c>
+      <c r="K22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" s="14">
+        <f>D11*D9</f>
+        <v>0</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="F23" s="15">
+        <f>SUM(F2:F22)</f>
+        <v>81050</v>
+      </c>
+      <c r="G23" s="15">
+        <f>SUMPRODUCT(F2:F22,G2:G22)</f>
+        <v>8600</v>
+      </c>
+      <c r="H23" s="13"/>
+      <c r="I23" s="15">
+        <f>SUM(I2:I22)</f>
+        <v>4395.2380952380954</v>
+      </c>
+      <c r="J23" s="15">
+        <f>SUM(J2:J22)</f>
+        <v>366.26984126984127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="14">
+        <f>J23</f>
+        <v>366.26984126984127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B25" s="14">
+        <f>D11*D10</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="14">
+        <f>D7</f>
+        <v>1298.780526624435</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="17">
+        <f>SUM(B12:B26)</f>
+        <v>2577.050367894276</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>50</v>
+      </c>
+      <c r="B28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E32" s="4"/>
+      <c r="L32" s="1"/>
+    </row>
+    <row r="33" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E36" s="4"/>
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E37" s="4"/>
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="4:12" x14ac:dyDescent="0.2">
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="E53" s="4"/>
+    </row>
+    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
+      <c r="D55" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K11" r:id="rId1" display="https://www.angi.com/articles/how-much-does-it-cost-install-countertops.htm" xr:uid="{21E0EEAC-6660-A048-9BFB-793C4742E5A9}"/>
+    <hyperlink ref="K12" r:id="rId2" xr:uid="{12AB180B-6343-5443-81BD-CC5F4286B784}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CFB8FAF-8138-CA4D-80DA-9B7B867EB697}">
+  <dimension ref="A1:L55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
@@ -815,31 +1745,31 @@
     <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D1" s="9">
         <v>0.4</v>
       </c>
       <c r="E1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>69</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>32</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>34</v>
       </c>
       <c r="L1" s="22"/>
     </row>
@@ -848,17 +1778,17 @@
         <v>2</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D2" s="20">
         <f>B7*(1-D1)</f>
         <v>180000</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F2" s="15">
         <v>16000</v>
@@ -881,19 +1811,19 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" s="8" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D3" s="21">
         <v>5.6500000000000002E-2</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F3" s="15">
         <v>700</v>
@@ -918,16 +1848,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D4" s="6">
         <v>30</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F4" s="15">
         <v>1000</v>
@@ -949,19 +1879,19 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="8">
         <v>1967</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D5" s="6">
         <v>12</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" s="15">
         <v>2500</v>
@@ -986,17 +1916,17 @@
         <v>3</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D6" s="6">
         <f>D4*D5</f>
         <v>360</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F6" s="15">
         <v>10000</v>
@@ -1025,14 +1955,14 @@
         <v>300000</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D7" s="20">
         <f>-PMT(D3/D5,D6,D2,0)</f>
         <v>1039.0244212995481</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F7" s="15">
         <v>6000</v>
@@ -1055,19 +1985,19 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B8" s="14">
         <v>0</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D8" s="10">
         <v>1.2500000000000001E-2</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F8" s="15">
         <v>3500</v>
@@ -1090,19 +2020,19 @@
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B9" s="14">
         <v>0</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D9" s="11">
         <v>0.05</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F9" s="15">
         <v>8000</v>
@@ -1124,19 +2054,19 @@
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B10" s="14">
         <v>0</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
       </c>
       <c r="E10" s="13" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="15">
         <v>4500</v>
@@ -1158,20 +2088,20 @@
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B11" s="14">
         <f>SUM(B7:B10)</f>
         <v>300000</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="18">
         <v>3000</v>
       </c>
       <c r="E11" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="15">
         <v>11000</v>
@@ -1200,14 +2130,14 @@
         <v>313</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D12" s="12">
         <f>(D11-B27)*12/(B11-D2)</f>
         <v>8.0383073743061056E-2</v>
       </c>
       <c r="E12" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="15">
         <v>6000</v>
@@ -1229,13 +2159,13 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B13" s="14">
         <v>21</v>
       </c>
       <c r="E13" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F13" s="15">
         <v>1200</v>
@@ -1257,13 +2187,13 @@
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" s="14">
         <v>0</v>
       </c>
       <c r="E14" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F14" s="15">
         <v>3000</v>
@@ -1285,13 +2215,13 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B15" s="14">
         <v>0</v>
       </c>
       <c r="E15" s="13" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F15" s="15">
         <v>0</v>
@@ -1313,14 +2243,14 @@
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="14">
         <v>0</v>
       </c>
       <c r="D16" s="19"/>
       <c r="E16" s="13" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F16" s="15">
         <v>0</v>
@@ -1342,14 +2272,14 @@
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B17" s="14">
         <v>0</v>
       </c>
       <c r="D17" s="19"/>
       <c r="E17" s="13" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F17" s="15">
         <v>2000</v>
@@ -1371,14 +2301,14 @@
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B18" s="14">
         <v>0</v>
       </c>
       <c r="D18" s="19"/>
       <c r="E18" s="13" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F18" s="15">
         <v>2000</v>
@@ -1400,13 +2330,13 @@
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="14">
         <v>0</v>
       </c>
       <c r="E19" s="13" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F19" s="15">
         <v>1000</v>
@@ -1428,13 +2358,13 @@
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="14">
         <v>0</v>
       </c>
       <c r="E20" s="13" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="15">
         <v>6500</v>
@@ -1456,13 +2386,13 @@
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B21" s="14">
         <v>200</v>
       </c>
       <c r="E21" s="13" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F21" s="15">
         <v>2000</v>
@@ -1484,13 +2414,13 @@
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B22" s="14">
         <v>0</v>
       </c>
       <c r="E22" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F22" s="15">
         <v>7000</v>
@@ -1512,14 +2442,14 @@
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="14">
         <f>D11*D9</f>
         <v>150</v>
       </c>
       <c r="E23" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F23" s="15">
         <f>SUM(F2:F22)</f>
@@ -1541,7 +2471,7 @@
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B24" s="14">
         <f>J23</f>
@@ -1550,7 +2480,7 @@
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B25" s="14">
         <f>D11*D10</f>
@@ -1559,7 +2489,7 @@
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B26" s="14">
         <f>D7</f>
@@ -1568,7 +2498,7 @@
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B27" s="17">
         <f>SUM(B12:B26)</f>
@@ -1597,10 +2527,10 @@
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E37" s="4"/>
       <c r="L37" s="3"/>
@@ -1663,994 +2593,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8993CD13-5542-1545-8627-FFC7EEDD19C0}">
-  <dimension ref="A1:L55"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="64.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="143.33203125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A1" s="8"/>
-      <c r="B1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="9">
-        <v>0.4</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="K1" s="23" t="s">
-        <v>75</v>
-      </c>
-      <c r="L1" s="22"/>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="D2" s="20">
-        <f>B7*(1-D1)</f>
-        <v>165600</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="15">
-        <v>11000</v>
-      </c>
-      <c r="G2" s="13">
-        <v>0</v>
-      </c>
-      <c r="H2" s="13">
-        <v>25</v>
-      </c>
-      <c r="I2" s="15">
-        <f>F2/H2</f>
-        <v>440</v>
-      </c>
-      <c r="J2" s="15">
-        <f>I2/12</f>
-        <v>36.666666666666664</v>
-      </c>
-      <c r="K2" t="s">
-        <v>76</v>
-      </c>
-      <c r="L2" s="1"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="D3" s="21">
-        <v>5.6500000000000002E-2</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="15">
-        <v>350</v>
-      </c>
-      <c r="G3" s="13">
-        <v>0</v>
-      </c>
-      <c r="H3" s="13">
-        <v>10</v>
-      </c>
-      <c r="I3" s="15">
-        <f t="shared" ref="I3:I22" si="0">F3/H3</f>
-        <v>35</v>
-      </c>
-      <c r="J3" s="15">
-        <f t="shared" ref="J3:J22" si="1">I3/12</f>
-        <v>2.9166666666666665</v>
-      </c>
-      <c r="K3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="D4" s="6">
-        <v>30</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="F4" s="15">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="13">
-        <v>0</v>
-      </c>
-      <c r="H4" s="13">
-        <v>10</v>
-      </c>
-      <c r="I4" s="15">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J4" s="15">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="K4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="8">
-        <v>1967</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="D5" s="6">
-        <v>12</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F5" s="15">
-        <v>1500</v>
-      </c>
-      <c r="G5" s="13">
-        <v>0</v>
-      </c>
-      <c r="H5" s="13">
-        <v>50</v>
-      </c>
-      <c r="I5" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J5" s="15">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="K5" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="D6" s="6">
-        <f>D4*D5</f>
-        <v>360</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="15">
-        <v>7500</v>
-      </c>
-      <c r="G6" s="13">
-        <v>0</v>
-      </c>
-      <c r="H6" s="13">
-        <v>20</v>
-      </c>
-      <c r="I6" s="15">
-        <f t="shared" si="0"/>
-        <v>375</v>
-      </c>
-      <c r="J6" s="15">
-        <f t="shared" si="1"/>
-        <v>31.25</v>
-      </c>
-      <c r="K6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L6" s="22"/>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="14">
-        <v>276000</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D7" s="20">
-        <f>-PMT(D3/D5,D6,D2,0)</f>
-        <v>955.9024675955842</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="15">
-        <v>6000</v>
-      </c>
-      <c r="G7" s="13">
-        <v>1</v>
-      </c>
-      <c r="H7" s="13">
-        <v>6</v>
-      </c>
-      <c r="I7" s="15">
-        <f t="shared" si="0"/>
-        <v>1000</v>
-      </c>
-      <c r="J7" s="15">
-        <f t="shared" si="1"/>
-        <v>83.333333333333329</v>
-      </c>
-      <c r="K7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L7" s="22"/>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="14">
-        <v>0</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="10">
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="F8" s="15">
-        <v>3500</v>
-      </c>
-      <c r="G8" s="13">
-        <v>0</v>
-      </c>
-      <c r="H8" s="13">
-        <v>30</v>
-      </c>
-      <c r="I8" s="15">
-        <f t="shared" si="0"/>
-        <v>116.66666666666667</v>
-      </c>
-      <c r="J8" s="15">
-        <f t="shared" si="1"/>
-        <v>9.7222222222222232</v>
-      </c>
-      <c r="K8" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="22"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B9" s="14">
-        <v>0</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D9" s="11">
-        <v>0.05</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="F9" s="15">
-        <v>8000</v>
-      </c>
-      <c r="G9" s="13">
-        <v>0</v>
-      </c>
-      <c r="H9" s="13">
-        <v>50</v>
-      </c>
-      <c r="I9" s="15">
-        <f t="shared" si="0"/>
-        <v>160</v>
-      </c>
-      <c r="J9" s="15">
-        <f t="shared" si="1"/>
-        <v>13.333333333333334</v>
-      </c>
-      <c r="K9" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A10" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="14">
-        <v>0</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D10" s="11">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="15">
-        <v>2600</v>
-      </c>
-      <c r="G10" s="13">
-        <v>1</v>
-      </c>
-      <c r="H10" s="13">
-        <v>5</v>
-      </c>
-      <c r="I10" s="15">
-        <f t="shared" si="0"/>
-        <v>520</v>
-      </c>
-      <c r="J10" s="15">
-        <f t="shared" si="1"/>
-        <v>43.333333333333336</v>
-      </c>
-      <c r="K10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A11" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="14">
-        <f>SUM(B7:B10)</f>
-        <v>276000</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D11" s="18">
-        <v>1500</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="15">
-        <v>8000</v>
-      </c>
-      <c r="G11" s="13">
-        <v>0</v>
-      </c>
-      <c r="H11" s="13">
-        <v>20</v>
-      </c>
-      <c r="I11" s="15">
-        <f t="shared" si="0"/>
-        <v>400</v>
-      </c>
-      <c r="J11" s="15">
-        <f t="shared" si="1"/>
-        <v>33.333333333333336</v>
-      </c>
-      <c r="K11" s="24" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A12" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B12" s="14">
-        <f>ROUND((B7*D8)/12, 0)</f>
-        <v>288</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="D12" s="12">
-        <f>(D11-B27)*12/(B11-D2)</f>
-        <v>-2.2410033572328836E-2</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="15">
-        <v>5000</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
-      </c>
-      <c r="H12" s="13">
-        <v>50</v>
-      </c>
-      <c r="I12" s="15">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J12" s="15">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="K12" s="24" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A13" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B13" s="14">
-        <v>21</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="15">
-        <v>800</v>
-      </c>
-      <c r="G13" s="13">
-        <v>0</v>
-      </c>
-      <c r="H13" s="13">
-        <v>10</v>
-      </c>
-      <c r="I13" s="15">
-        <f t="shared" si="0"/>
-        <v>80</v>
-      </c>
-      <c r="J13" s="15">
-        <f t="shared" si="1"/>
-        <v>6.666666666666667</v>
-      </c>
-      <c r="K13" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="14">
-        <v>0</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G14" s="13">
-        <v>0</v>
-      </c>
-      <c r="H14" s="13">
-        <v>20</v>
-      </c>
-      <c r="I14" s="15">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J14" s="15">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="K14" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A15" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B15" s="14">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="15">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13">
-        <v>50</v>
-      </c>
-      <c r="I15" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J15" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="14">
-        <v>0</v>
-      </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="13" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="15">
-        <v>3000</v>
-      </c>
-      <c r="G16" s="13">
-        <v>0</v>
-      </c>
-      <c r="H16" s="13">
-        <v>100</v>
-      </c>
-      <c r="I16" s="15">
-        <f t="shared" si="0"/>
-        <v>30</v>
-      </c>
-      <c r="J16" s="15">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
-      </c>
-      <c r="K16" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="14">
-        <v>0</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="F17" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G17" s="13">
-        <v>0</v>
-      </c>
-      <c r="H17" s="13">
-        <v>20</v>
-      </c>
-      <c r="I17" s="15">
-        <f t="shared" si="0"/>
-        <v>100</v>
-      </c>
-      <c r="J17" s="15">
-        <f t="shared" si="1"/>
-        <v>8.3333333333333339</v>
-      </c>
-      <c r="K17" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A18" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B18" s="14">
-        <v>0</v>
-      </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="F18" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G18" s="13">
-        <v>0</v>
-      </c>
-      <c r="H18" s="13">
-        <v>10</v>
-      </c>
-      <c r="I18" s="15">
-        <f t="shared" si="0"/>
-        <v>200</v>
-      </c>
-      <c r="J18" s="15">
-        <f t="shared" si="1"/>
-        <v>16.666666666666668</v>
-      </c>
-      <c r="K18" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A19" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B19" s="14">
-        <v>0</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
-      </c>
-      <c r="G19" s="13">
-        <v>0</v>
-      </c>
-      <c r="H19" s="13">
-        <v>100</v>
-      </c>
-      <c r="I19" s="15">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J19" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A20" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B20" s="14">
-        <v>0</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="F20" s="15">
-        <v>12000</v>
-      </c>
-      <c r="G20" s="13">
-        <v>0</v>
-      </c>
-      <c r="H20" s="13">
-        <v>40</v>
-      </c>
-      <c r="I20" s="15">
-        <f t="shared" si="0"/>
-        <v>300</v>
-      </c>
-      <c r="J20" s="15">
-        <f t="shared" si="1"/>
-        <v>25</v>
-      </c>
-      <c r="K20" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A21" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B21" s="14">
-        <v>0</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="F21" s="15">
-        <v>2000</v>
-      </c>
-      <c r="G21" s="13">
-        <v>0</v>
-      </c>
-      <c r="H21" s="13">
-        <v>70</v>
-      </c>
-      <c r="I21" s="15">
-        <f t="shared" si="0"/>
-        <v>28.571428571428573</v>
-      </c>
-      <c r="J21" s="15">
-        <f t="shared" si="1"/>
-        <v>2.3809523809523809</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A22" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B22" s="14">
-        <v>0</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="F22" s="15">
-        <v>2800</v>
-      </c>
-      <c r="G22" s="13">
-        <v>0</v>
-      </c>
-      <c r="H22" s="13">
-        <v>10</v>
-      </c>
-      <c r="I22" s="15">
-        <f t="shared" si="0"/>
-        <v>280</v>
-      </c>
-      <c r="J22" s="15">
-        <f t="shared" si="1"/>
-        <v>23.333333333333332</v>
-      </c>
-      <c r="K22" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A23" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="14">
-        <f>D11*D9</f>
-        <v>75</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="F23" s="15">
-        <f>SUM(F2:F22)</f>
-        <v>81050</v>
-      </c>
-      <c r="G23" s="15">
-        <f>SUMPRODUCT(F2:F22,G2:G22)</f>
-        <v>8600</v>
-      </c>
-      <c r="H23" s="13"/>
-      <c r="I23" s="15">
-        <f>SUM(I2:I22)</f>
-        <v>4395.2380952380954</v>
-      </c>
-      <c r="J23" s="15">
-        <f>SUM(J2:J22)</f>
-        <v>366.26984126984127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B24" s="14">
-        <f>J23</f>
-        <v>366.26984126984127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A25" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="B25" s="14">
-        <f>D11*D10</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A26" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="B26" s="14">
-        <f>D7</f>
-        <v>955.9024675955842</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B27" s="17">
-        <f>SUM(B12:B26)</f>
-        <v>1706.1723088654253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="L31" s="2"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E32" s="4"/>
-      <c r="L32" s="1"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E36" s="4"/>
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="E37" s="4"/>
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="D39" s="4"/>
-      <c r="E39" s="4"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E40" s="4"/>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E41" s="4"/>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E43" s="4"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E44" s="4"/>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E45" s="4"/>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E46" s="4"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E47" s="4"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E49" s="4"/>
-    </row>
-    <row r="50" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E50" s="4"/>
-    </row>
-    <row r="51" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E51" s="4"/>
-    </row>
-    <row r="52" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E52" s="4"/>
-    </row>
-    <row r="53" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="E53" s="4"/>
-    </row>
-    <row r="55" spans="4:5" x14ac:dyDescent="0.2">
-      <c r="D55" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="K11" r:id="rId1" display="https://www.angi.com/articles/how-much-does-it-cost-install-countertops.htm" xr:uid="{21E0EEAC-6660-A048-9BFB-793C4742E5A9}"/>
-    <hyperlink ref="K12" r:id="rId2" xr:uid="{12AB180B-6343-5443-81BD-CC5F4286B784}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F9F31-AFE4-B14E-9C68-D6F777A2B684}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4CC496-196B-A74D-BBCF-E55133C2D859}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC7053A5-6270-4340-9D1A-B09CBCC0E076}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C4CC496-196B-A74D-BBCF-E55133C2D859}">
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
